--- a/REGISTER UI.xlsx
+++ b/REGISTER UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Testing\HETHONGHOCPHAN - ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E59872-E80D-46B4-88BC-3B3E5C27B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB4EB8F-E385-4BFB-AFA7-33B300E56BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9886A2B5-EB98-4686-BF30-BE64F506BB5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{9886A2B5-EB98-4686-BF30-BE64F506BB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="354">
   <si>
     <t>ID</t>
   </si>
@@ -9253,9 +9253,6 @@
   </si>
   <si>
     <t>New</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
   <si>
     <r>
@@ -16051,7 +16048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715556A8-09FF-49CA-BD74-0A0BEEBA8B6F}">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
@@ -16358,7 +16355,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>127</v>
@@ -16397,7 +16394,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K9" s="49" t="s">
         <v>126</v>
@@ -16436,7 +16433,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K10" s="49" t="s">
         <v>126</v>
@@ -16930,7 +16927,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>232</v>
@@ -17006,7 +17003,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K25" s="45" t="s">
         <v>234</v>
@@ -17045,7 +17042,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K26" s="45" t="s">
         <v>235</v>
@@ -17083,7 +17080,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>303</v>
@@ -17121,7 +17118,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>305</v>
@@ -17197,7 +17194,7 @@
         <v>15</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K30" s="45" t="s">
         <v>237</v>
@@ -17235,7 +17232,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K31" s="45" t="s">
         <v>238</v>
@@ -17274,7 +17271,7 @@
         <v>15</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>239</v>
@@ -17313,7 +17310,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K33" s="45" t="s">
         <v>240</v>
@@ -17389,7 +17386,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K35" s="45" t="s">
         <v>242</v>
@@ -17428,7 +17425,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K36" s="45" t="s">
         <v>243</v>
@@ -17467,7 +17464,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K37" s="45" t="s">
         <v>244</v>
@@ -17505,7 +17502,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K38" s="45" t="s">
         <v>245</v>
@@ -17543,7 +17540,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K39" s="45" t="s">
         <v>246</v>
@@ -17581,7 +17578,7 @@
         <v>16</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K40" s="45" t="s">
         <v>247</v>
@@ -17619,7 +17616,7 @@
         <v>15</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K41" s="45" t="s">
         <v>248</v>
@@ -17657,7 +17654,7 @@
         <v>15</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K42" s="45" t="s">
         <v>249</v>
@@ -17695,7 +17692,7 @@
         <v>15</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K43" s="70" t="s">
         <v>250</v>
@@ -17733,7 +17730,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K44" s="70" t="s">
         <v>251</v>
@@ -17771,7 +17768,7 @@
         <v>15</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K45" s="70" t="s">
         <v>252</v>
@@ -17809,7 +17806,7 @@
         <v>15</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K46" s="70" t="s">
         <v>253</v>
@@ -17848,7 +17845,7 @@
         <v>15</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K47" s="70" t="s">
         <v>256</v>
@@ -18454,8 +18451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198247CA-913A-4388-837E-93101473BF40}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18554,10 +18551,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
